--- a/massive-load/Departments.xlsx
+++ b/massive-load/Departments.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hzumaeta\02.2024\46.Arquitectura Organizacional\payload-ogs\massive-load\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hzumaeta\02.2024\46.Arquitectura Organizacional\organizational-guidance\massive-load\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD95171-3CF1-492A-8B94-0B29B6B876EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE07444-5987-46BC-8F4E-9F6BF219AED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{48CF644C-4FC9-4A73-9166-057E2EAB0C18}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{48CF644C-4FC9-4A73-9166-057E2EAB0C18}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="departments" sheetId="1" r:id="rId1"/>
+    <sheet name="references" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="type">Hoja2!$A$2:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">departments!$A$1:$C$87</definedName>
+    <definedName name="type">references!$A$2:$B$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,37 +38,12 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="109">
   <si>
     <t>Despacho Ministerial</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Órgano de Alta Dirección</t>
   </si>
   <si>
@@ -348,9 +324,6 @@
   </si>
   <si>
     <t>Programa Nacional de Becas y Crédito Educativo</t>
-  </si>
-  <si>
-    <t>Esta tabla presenta la estructura organizacional del MI</t>
   </si>
   <si>
     <t>programa</t>
@@ -766,987 +739,943 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA804866-F4BD-4359-8721-20D9AE95A551}">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:XFD89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
         <v>108</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
       <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="36" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30">
       <c r="A31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30">
       <c r="A32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30">
       <c r="A46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30">
       <c r="A47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="30">
       <c r="A49" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="30">
       <c r="A50" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="30">
       <c r="A52" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="30">
       <c r="A53" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="45">
       <c r="A54" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="45">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="45">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="45">
       <c r="A57" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="30">
       <c r="A58" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="30">
       <c r="A59" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="45">
       <c r="A60" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="30">
       <c r="A61" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="30">
       <c r="A62" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="30">
       <c r="A63" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="30">
       <c r="A65" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="30">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="30">
       <c r="A67" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="30">
       <c r="A68" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="45">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="45">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="45">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="45">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="45">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="30">
       <c r="A74" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="30">
       <c r="A75" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="30">
       <c r="A76" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="30">
       <c r="A77" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30">
       <c r="A78" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="30">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="30">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="30">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="30">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="30">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="30">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="30">
       <c r="A85" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="30">
       <c r="A86" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B86" s="2"/>
       <c r="C86" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="30">
       <c r="A87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s">
         <v>95</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>96</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C87" xr:uid="{DA804866-F4BD-4359-8721-20D9AE95A551}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7A5AA8-3640-4C69-965D-60CCBF299F18}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1754,91 +1683,87 @@
     <col min="1" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C2" t="e" cm="1">
-        <f t="array" ref="C2">_xlfn.SWITCH(#REF!,"ó","o")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2">
